--- a/Web/wwwroot/Reports/OrdersForCurrentClient.xlsx
+++ b/Web/wwwroot/Reports/OrdersForCurrentClient.xlsx
@@ -48,19 +48,25 @@
     <t>Общая стоимость</t>
   </si>
   <si>
-    <t>Room Only</t>
-  </si>
-  <si>
-    <t>08-05-2023</t>
-  </si>
-  <si>
-    <t>10-05-2023</t>
-  </si>
-  <si>
-    <t>ServiceTest3</t>
-  </si>
-  <si>
-    <t/>
+    <t>All Inclusive</t>
+  </si>
+  <si>
+    <t>15-06-2023</t>
+  </si>
+  <si>
+    <t>22-06-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользование тренажерным залом
+Заказ ежедневного блюда из ресторана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уборка номера
+Доставка газет
+Пользование бассейном
+Пользование бизнес-центром
+Пользование парковкой
+Доставка вещей из химчистки/прачечной</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
@@ -447,7 +453,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="0">
-        <v>6400</v>
+        <v>58850</v>
       </c>
     </row>
   </sheetData>
